--- a/Data/Tags/codebook.xlsx
+++ b/Data/Tags/codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Library/CloudStorage/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/Factor_Analysis_Digital_Divide/Data/Tags/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D31CF68-54D5-6D48-B392-83358B5FB9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5906BE3F-4416-7640-9FB6-E06AB17B65AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:B30"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
